--- a/sample/exp0_vs_exp1/death/hr_sex.xlsx
+++ b/sample/exp0_vs_exp1/death/hr_sex.xlsx
@@ -416,19 +416,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.8993509656032398</v>
+        <v>0.8993509656032392</v>
       </c>
       <c r="C2">
-        <v>0.5147218022332462</v>
+        <v>0.5147218022332458</v>
       </c>
       <c r="D2">
-        <v>1.571396734745185</v>
+        <v>1.571396734745184</v>
       </c>
       <c r="E2">
-        <v>0.7295439263724669</v>
+        <v>0.7295439263724667</v>
       </c>
       <c r="F2">
-        <v>0.409864137324793</v>
+        <v>0.4098641373247929</v>
       </c>
       <c r="G2">
         <v>1.298562845680717</v>
@@ -456,22 +456,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5340717440832863</v>
+        <v>0.5340717440832862</v>
       </c>
       <c r="C3">
         <v>0.05182140062433688</v>
       </c>
       <c r="D3">
-        <v>5.504147406124132</v>
+        <v>5.504147406124129</v>
       </c>
       <c r="E3">
-        <v>0.4935584841152121</v>
+        <v>0.4935584841152122</v>
       </c>
       <c r="F3">
         <v>0.04613959898038492</v>
       </c>
       <c r="G3">
-        <v>5.279629269115805</v>
+        <v>5.27962926911581</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
